--- a/Project-Vss.xlsx
+++ b/Project-Vss.xlsx
@@ -663,28 +663,27 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="131982080"/>
-        <c:axId val="131983616"/>
+        <c:axId val="122660736"/>
+        <c:axId val="122662272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="131982080"/>
+        <c:axId val="122660736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131983616"/>
+        <c:crossAx val="122662272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131983616"/>
+        <c:axId val="122662272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -693,7 +692,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131982080"/>
+        <c:crossAx val="122660736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -730,7 +729,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1059,7 +1058,7 @@
   <dimension ref="A3:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Project-Vss.xlsx
+++ b/Project-Vss.xlsx
@@ -665,25 +665,25 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="122660736"/>
-        <c:axId val="122662272"/>
+        <c:axId val="144874880"/>
+        <c:axId val="144880768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="122660736"/>
+        <c:axId val="144874880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122662272"/>
+        <c:crossAx val="144880768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122662272"/>
+        <c:axId val="144880768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -692,7 +692,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122660736"/>
+        <c:crossAx val="144874880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -729,7 +729,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1057,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Project-Vss.xlsx
+++ b/Project-Vss.xlsx
@@ -55,13 +55,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,13 +88,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -665,25 +678,25 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="144874880"/>
-        <c:axId val="144880768"/>
+        <c:axId val="131622016"/>
+        <c:axId val="131623552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="144874880"/>
+        <c:axId val="131622016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144880768"/>
+        <c:crossAx val="131623552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144880768"/>
+        <c:axId val="131623552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -692,7 +705,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144874880"/>
+        <c:crossAx val="131622016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -729,7 +742,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1058,7 +1071,7 @@
   <dimension ref="A3:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1337,13 +1350,16 @@
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A21" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
